--- a/Example input/CO2_Respiration_CaseStudy2/CaseStudy2.xlsx
+++ b/Example input/CO2_Respiration_CaseStudy2/CaseStudy2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5030557-3623-4454-8134-E163F4DDA1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B077EC3-AE21-4EAC-A41B-D0D4DA629AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="626" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25092" yWindow="2496" windowWidth="17280" windowHeight="9540" tabRatio="626" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="Soil">Soil!$A$1:$AS$1</definedName>
     <definedName name="Time">Time!$A$1:$K$1</definedName>
-    <definedName name="Weather">Weather!$A$1:$E$6</definedName>
+    <definedName name="Weather">Weather!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="277">
   <si>
     <t>Date</t>
   </si>
@@ -498,9 +498,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>hourly</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -510,30 +507,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>run_13</t>
-  </si>
-  <si>
-    <t>run_14</t>
-  </si>
-  <si>
-    <t>run_15</t>
-  </si>
-  <si>
-    <t>run_16</t>
-  </si>
-  <si>
-    <t>run_17</t>
-  </si>
-  <si>
-    <t>run_18</t>
-  </si>
-  <si>
-    <t>run_19</t>
-  </si>
-  <si>
-    <t>run_20</t>
-  </si>
-  <si>
     <t>field</t>
   </si>
   <si>
@@ -546,12 +519,6 @@
     <t>I_type</t>
   </si>
   <si>
-    <t>Mead</t>
-  </si>
-  <si>
-    <t>Bush</t>
-  </si>
-  <si>
     <t>Pn_33B51</t>
   </si>
   <si>
@@ -597,24 +564,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>MeadNE2</t>
-  </si>
-  <si>
-    <t>MeadNE3</t>
-  </si>
-  <si>
-    <t>NW-MESA-75%</t>
-  </si>
-  <si>
-    <t>SW-MESA-100%</t>
-  </si>
-  <si>
-    <t>NE-SDI-100%</t>
-  </si>
-  <si>
-    <t>SE-SDI-100%</t>
-  </si>
-  <si>
     <t>depth</t>
   </si>
   <si>
@@ -822,9 +771,6 @@
     <t>altitude(m)</t>
   </si>
   <si>
-    <t>agmipet2weather.csv</t>
-  </si>
-  <si>
     <t xml:space="preserve">BEOU </t>
   </si>
   <si>
@@ -940,6 +886,9 @@
   </si>
   <si>
     <t>CaseStudy1_2_Weather.csv</t>
+  </si>
+  <si>
+    <t>amount (mm/day)</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1131,22 +1080,10 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1195,9 +1132,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1235,9 +1172,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1270,26 +1207,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1322,26 +1242,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1526,173 +1429,172 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" style="29" customWidth="1"/>
-    <col min="3" max="3" width="12" style="29" customWidth="1"/>
-    <col min="4" max="5" width="13" style="29" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="16" style="29" customWidth="1"/>
-    <col min="8" max="9" width="20" style="29" customWidth="1"/>
-    <col min="10" max="10" width="17" style="29" customWidth="1"/>
-    <col min="11" max="11" width="13" style="29" customWidth="1"/>
-    <col min="12" max="12" width="16" style="29" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" style="29" customWidth="1"/>
-    <col min="14" max="14" width="15" style="29" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="29" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" style="29" customWidth="1"/>
-    <col min="17" max="17" width="24.6640625" style="29" customWidth="1"/>
-    <col min="18" max="18" width="24.88671875" style="29" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" style="29" customWidth="1"/>
-    <col min="20" max="20" width="15.88671875" style="29" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="29"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="21.33203125" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.6640625" customWidth="1"/>
+    <col min="18" max="18" width="24.88671875" customWidth="1"/>
+    <col min="19" max="19" width="16.109375" customWidth="1"/>
+    <col min="20" max="20" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P1" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="29" t="s">
+      <c r="Q1" t="s">
+        <v>208</v>
+      </c>
+      <c r="R1" t="s">
+        <v>220</v>
+      </c>
+      <c r="S1" t="s">
+        <v>224</v>
+      </c>
+      <c r="T1" t="s">
+        <v>219</v>
+      </c>
+      <c r="U1" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="P1" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>237</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>241</v>
-      </c>
-      <c r="T1" s="29" t="s">
-        <v>236</v>
-      </c>
-      <c r="U1" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="W1" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="X1" s="29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="35" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" s="29" t="str">
+      <c r="W1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="str">
         <f>C2 &amp; ".var"</f>
         <v>BEOU.var</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="F2" s="29" t="str">
+      <c r="E2" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="str">
         <f>E2 &amp;"_"&amp; A2 &amp; ".soi"</f>
         <v>SCA_Soil_SCA2004_Run1.soi</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="L2" s="34" t="s">
+      <c r="G2" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="L2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="N2" s="32" t="s">
+      <c r="M2" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="N2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q2" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="R2" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="T2" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="U2" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="W2" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="X2" s="35">
+      <c r="O2" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="W2" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="X2" s="21">
         <v>2004</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="J3" s="33"/>
+      <c r="J3" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1777,15 +1679,15 @@
         <v>71</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1799,7 +1701,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1813,7 +1715,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1827,7 +1729,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1841,7 +1743,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1855,7 +1757,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1869,7 +1771,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1883,7 +1785,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1897,7 +1799,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1911,7 +1813,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1925,7 +1827,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1939,7 +1841,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1982,7 +1884,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="C1" t="s">
         <v>112</v>
@@ -1991,7 +1893,7 @@
         <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -2003,7 +1905,7 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="J1" t="s">
         <v>114</v>
@@ -2012,7 +1914,7 @@
         <v>115</v>
       </c>
       <c r="L1" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="M1" t="s">
         <v>116</v>
@@ -2027,12 +1929,12 @@
         <v>119</v>
       </c>
       <c r="Q1" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="B2">
         <v>62500</v>
@@ -2094,7 +1996,7 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AS15"/>
+  <dimension ref="A1:AS6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
@@ -2113,34 +2015,34 @@
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
         <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
         <v>131</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="K1" t="s">
         <v>132</v>
@@ -2149,16 +2051,16 @@
         <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="N1" t="s">
         <v>125</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="Q1" t="s">
         <v>126</v>
@@ -2245,18 +2147,18 @@
         <v>64</v>
       </c>
       <c r="AS1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:45" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="B2" s="27">
         <v>15</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D2" s="27">
         <v>2.0176920000000002E-3</v>
@@ -2386,584 +2288,557 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="29">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3">
         <v>30</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="29">
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3">
         <v>1.525401E-3</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3">
         <v>-1</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3">
         <v>-1</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3">
         <v>10</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3">
         <v>2.81</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3">
         <v>0.33</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3">
         <v>9</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3">
         <v>379</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3">
         <v>206000</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3">
         <v>29</v>
       </c>
-      <c r="R3" s="29">
+      <c r="R3">
         <v>53</v>
       </c>
-      <c r="S3" s="29">
+      <c r="S3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T3" s="29">
+      <c r="T3">
         <v>1.37</v>
       </c>
-      <c r="U3" s="29">
+      <c r="U3">
         <v>0.37</v>
       </c>
-      <c r="V3" s="29">
+      <c r="V3">
         <v>0.22</v>
       </c>
-      <c r="W3" s="29">
+      <c r="W3">
         <v>-1</v>
       </c>
-      <c r="X3" s="29">
+      <c r="X3">
         <v>-1</v>
       </c>
-      <c r="Y3" s="29">
+      <c r="Y3">
         <v>-1</v>
       </c>
-      <c r="Z3" s="29">
+      <c r="Z3">
         <v>-1</v>
       </c>
-      <c r="AA3" s="29">
+      <c r="AA3">
         <v>-1</v>
       </c>
-      <c r="AB3" s="29">
+      <c r="AB3">
         <v>-1</v>
       </c>
-      <c r="AC3" s="29">
+      <c r="AC3">
         <v>11</v>
       </c>
-      <c r="AD3" s="29">
+      <c r="AD3">
         <v>10</v>
       </c>
-      <c r="AE3" s="29">
+      <c r="AE3">
         <v>-1</v>
       </c>
-      <c r="AF3" s="30">
+      <c r="AF3" s="22">
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="AG3" s="27">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AH3" s="29">
+      <c r="AH3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI3" s="29">
+      <c r="AI3">
         <v>0.2</v>
       </c>
-      <c r="AJ3" s="29">
+      <c r="AJ3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AK3" s="29">
+      <c r="AK3">
         <v>0.6</v>
       </c>
-      <c r="AL3" s="29">
+      <c r="AL3">
         <v>0.2</v>
       </c>
-      <c r="AM3" s="29">
+      <c r="AM3">
         <v>10</v>
       </c>
-      <c r="AN3" s="29">
+      <c r="AN3">
         <v>50</v>
       </c>
-      <c r="AO3" s="29">
+      <c r="AO3">
         <v>10</v>
       </c>
-      <c r="AP3" s="29">
+      <c r="AP3">
         <v>0.1</v>
       </c>
-      <c r="AQ3" s="29">
+      <c r="AQ3">
         <v>8</v>
       </c>
-      <c r="AR3" s="29">
+      <c r="AR3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AS3" s="29">
+      <c r="AS3">
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="B4" s="29">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4">
         <v>50</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="29">
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4">
         <v>1.1675500000000001E-3</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4">
         <v>-1</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4">
         <v>-1</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4">
         <v>10</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4">
         <v>2.81</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4">
         <v>0.33</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4">
         <v>10</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4">
         <v>379</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4">
         <v>206000</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="Q4">
         <v>28</v>
       </c>
-      <c r="R4" s="29">
+      <c r="R4">
         <v>52</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="T4" s="29">
+      <c r="T4">
         <v>1.51</v>
       </c>
-      <c r="U4" s="29">
+      <c r="U4">
         <v>0.37</v>
       </c>
-      <c r="V4" s="29">
+      <c r="V4">
         <v>0.22</v>
       </c>
-      <c r="W4" s="29">
+      <c r="W4">
         <v>-1</v>
       </c>
-      <c r="X4" s="29">
+      <c r="X4">
         <v>-1</v>
       </c>
-      <c r="Y4" s="29">
+      <c r="Y4">
         <v>-1</v>
       </c>
-      <c r="Z4" s="29">
+      <c r="Z4">
         <v>-1</v>
       </c>
-      <c r="AA4" s="29">
+      <c r="AA4">
         <v>-1</v>
       </c>
-      <c r="AB4" s="29">
+      <c r="AB4">
         <v>-1</v>
       </c>
-      <c r="AC4" s="29">
+      <c r="AC4">
         <v>11</v>
       </c>
-      <c r="AD4" s="29">
+      <c r="AD4">
         <v>10</v>
       </c>
-      <c r="AE4" s="29">
+      <c r="AE4">
         <v>-1</v>
       </c>
-      <c r="AF4" s="30">
+      <c r="AF4" s="22">
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="AG4" s="27">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AH4" s="29">
+      <c r="AH4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI4" s="29">
+      <c r="AI4">
         <v>0.2</v>
       </c>
-      <c r="AJ4" s="29">
+      <c r="AJ4">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AK4" s="29">
+      <c r="AK4">
         <v>0.6</v>
       </c>
-      <c r="AL4" s="29">
+      <c r="AL4">
         <v>0.2</v>
       </c>
-      <c r="AM4" s="29">
+      <c r="AM4">
         <v>10</v>
       </c>
-      <c r="AN4" s="29">
+      <c r="AN4">
         <v>50</v>
       </c>
-      <c r="AO4" s="29">
+      <c r="AO4">
         <v>10</v>
       </c>
-      <c r="AP4" s="29">
+      <c r="AP4">
         <v>0.1</v>
       </c>
-      <c r="AQ4" s="29">
+      <c r="AQ4">
         <v>8</v>
       </c>
-      <c r="AR4" s="29">
+      <c r="AR4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AS4" s="29">
+      <c r="AS4">
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" s="29">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5">
         <v>75</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="29">
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5">
         <v>1.188759E-3</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5">
         <v>-1</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5">
         <v>-1</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5">
         <v>2.81</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5">
         <v>0.33</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5">
         <v>20</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5">
         <v>379</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5">
         <v>206000</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5">
         <v>29</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5">
         <v>51</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5">
         <v>1.58</v>
       </c>
-      <c r="U5" s="29">
+      <c r="U5">
         <v>0.37</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5">
         <v>0.22</v>
       </c>
-      <c r="W5" s="29">
+      <c r="W5">
         <v>-1</v>
       </c>
-      <c r="X5" s="29">
+      <c r="X5">
         <v>-1</v>
       </c>
-      <c r="Y5" s="29">
+      <c r="Y5">
         <v>-1</v>
       </c>
-      <c r="Z5" s="29">
+      <c r="Z5">
         <v>-1</v>
       </c>
-      <c r="AA5" s="29">
+      <c r="AA5">
         <v>-1</v>
       </c>
-      <c r="AB5" s="29">
+      <c r="AB5">
         <v>-1</v>
       </c>
-      <c r="AC5" s="29">
+      <c r="AC5">
         <v>11</v>
       </c>
-      <c r="AD5" s="29">
+      <c r="AD5">
         <v>10</v>
       </c>
-      <c r="AE5" s="29">
+      <c r="AE5">
         <v>-1</v>
       </c>
-      <c r="AF5" s="30">
+      <c r="AF5" s="22">
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="AG5" s="27">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AH5" s="29">
+      <c r="AH5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI5" s="29">
+      <c r="AI5">
         <v>0.2</v>
       </c>
-      <c r="AJ5" s="29">
+      <c r="AJ5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AK5" s="29">
+      <c r="AK5">
         <v>0.6</v>
       </c>
-      <c r="AL5" s="29">
+      <c r="AL5">
         <v>0.2</v>
       </c>
-      <c r="AM5" s="29">
+      <c r="AM5">
         <v>10</v>
       </c>
-      <c r="AN5" s="29">
+      <c r="AN5">
         <v>50</v>
       </c>
-      <c r="AO5" s="29">
+      <c r="AO5">
         <v>10</v>
       </c>
-      <c r="AP5" s="29">
+      <c r="AP5">
         <v>0.1</v>
       </c>
-      <c r="AQ5" s="29">
+      <c r="AQ5">
         <v>8</v>
       </c>
-      <c r="AR5" s="29">
+      <c r="AR5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AS5" s="29">
+      <c r="AS5">
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="B6" s="29">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6">
         <v>100</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="29">
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6">
         <v>7.4025299999999996E-4</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6">
         <v>-1</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6">
         <v>-1</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6">
         <v>10</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6">
         <v>2.81</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6">
         <v>0.33</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6">
         <v>20</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6">
         <v>379</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6">
         <v>206000</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="Q6">
         <v>33</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6">
         <v>48</v>
       </c>
-      <c r="S6" s="29">
+      <c r="S6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6">
         <v>1.58</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6">
         <v>0.37</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6">
         <v>0.22</v>
       </c>
-      <c r="W6" s="29">
+      <c r="W6">
         <v>-1</v>
       </c>
-      <c r="X6" s="29">
+      <c r="X6">
         <v>-1</v>
       </c>
-      <c r="Y6" s="29">
+      <c r="Y6">
         <v>-1</v>
       </c>
-      <c r="Z6" s="29">
+      <c r="Z6">
         <v>-1</v>
       </c>
-      <c r="AA6" s="29">
+      <c r="AA6">
         <v>-1</v>
       </c>
-      <c r="AB6" s="29">
+      <c r="AB6">
         <v>-1</v>
       </c>
-      <c r="AC6" s="29">
+      <c r="AC6">
         <v>11</v>
       </c>
-      <c r="AD6" s="29">
+      <c r="AD6">
         <v>10</v>
       </c>
-      <c r="AE6" s="29">
+      <c r="AE6">
         <v>-1</v>
       </c>
-      <c r="AF6" s="30">
+      <c r="AF6" s="22">
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="AG6" s="27">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AH6" s="29">
+      <c r="AH6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI6" s="29">
+      <c r="AI6">
         <v>0.2</v>
       </c>
-      <c r="AJ6" s="29">
+      <c r="AJ6">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AK6" s="29">
+      <c r="AK6">
         <v>0.6</v>
       </c>
-      <c r="AL6" s="29">
+      <c r="AL6">
         <v>0.2</v>
       </c>
-      <c r="AM6" s="29">
+      <c r="AM6">
         <v>10</v>
       </c>
-      <c r="AN6" s="29">
+      <c r="AN6">
         <v>50</v>
       </c>
-      <c r="AO6" s="29">
+      <c r="AO6">
         <v>10</v>
       </c>
-      <c r="AP6" s="29">
+      <c r="AP6">
         <v>0.1</v>
       </c>
-      <c r="AQ6" s="29">
+      <c r="AQ6">
         <v>8</v>
       </c>
-      <c r="AR6" s="29">
+      <c r="AR6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AS6" s="29">
+      <c r="AS6">
         <v>0.38600000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="AF7" s="30"/>
-    </row>
-    <row r="8" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="AF8" s="30"/>
-    </row>
-    <row r="9" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="AF9" s="30"/>
-    </row>
-    <row r="10" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="AF10" s="30"/>
-    </row>
-    <row r="11" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="AF11" s="30"/>
-    </row>
-    <row r="12" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="AF12" s="30"/>
-    </row>
-    <row r="13" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="AF13" s="30"/>
-    </row>
-    <row r="14" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="AF14" s="30"/>
-    </row>
-    <row r="15" spans="1:45" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="AF15" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3022,15 +2897,15 @@
         <v>79</v>
       </c>
       <c r="K1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="B2" s="1">
         <v>37834</v>
@@ -3192,7 +3067,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B2">
         <v>18</v>
@@ -3282,7 +3157,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -3372,7 +3247,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B4">
         <v>18</v>
@@ -3462,7 +3337,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -3552,7 +3427,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B6">
         <v>18</v>
@@ -3642,7 +3517,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B7">
         <v>18</v>
@@ -3732,7 +3607,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -3822,7 +3697,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B9">
         <v>18</v>
@@ -3912,7 +3787,7 @@
     </row>
     <row r="10" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -4010,10 +3885,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet13"/>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4030,7 +3905,7 @@
         <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
         <v>129</v>
@@ -4042,399 +3917,294 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" t="s">
-        <v>190</v>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D3" t="s">
-        <v>190</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="15" t="str">
+        <f>C2</f>
+        <v>CaseStudy1_2_Weather.csv</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>163</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D4" t="s">
-        <v>190</v>
+        <v>262</v>
+      </c>
+      <c r="C4" s="15" t="str">
+        <f t="shared" ref="C4:C17" si="0">C3</f>
+        <v>CaseStudy1_2_Weather.csv</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>163</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="B5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5" t="s">
-        <v>190</v>
+        <v>263</v>
+      </c>
+      <c r="C5" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>CaseStudy1_2_Weather.csv</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>163</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D6" t="s">
-        <v>190</v>
+        <v>264</v>
+      </c>
+      <c r="C6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>CaseStudy1_2_Weather.csv</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>163</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>247</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D7" t="s">
-        <v>190</v>
+        <v>265</v>
+      </c>
+      <c r="C7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>CaseStudy1_2_Weather.csv</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>293</v>
+        <v>247</v>
+      </c>
+      <c r="B8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>CaseStudy1_2_Weather.csv</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>278</v>
+      <c r="A9" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" t="s">
+        <v>266</v>
       </c>
       <c r="C9" s="15" t="str">
-        <f>C8</f>
+        <f t="shared" si="0"/>
         <v>CaseStudy1_2_Weather.csv</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C10" s="15" t="str">
-        <f t="shared" ref="C10:C23" si="0">C9</f>
+        <f t="shared" si="0"/>
         <v>CaseStudy1_2_Weather.csv</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CaseStudy1_2_Weather.csv</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CaseStudy1_2_Weather.csv</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B13" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CaseStudy1_2_Weather.csv</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B14" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CaseStudy1_2_Weather.csv</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="C15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CaseStudy1_2_Weather.csv</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B16" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CaseStudy1_2_Weather.csv</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E16" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B17" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="C17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CaseStudy1_2_Weather.csv</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="E17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B18" t="s">
-        <v>287</v>
-      </c>
-      <c r="C18" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>CaseStudy1_2_Weather.csv</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E18" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B19" t="s">
-        <v>288</v>
-      </c>
-      <c r="C19" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>CaseStudy1_2_Weather.csv</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C20" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>CaseStudy1_2_Weather.csv</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B21" t="s">
-        <v>290</v>
-      </c>
-      <c r="C21" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>CaseStudy1_2_Weather.csv</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E21" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B22" t="s">
-        <v>291</v>
-      </c>
-      <c r="C22" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>CaseStudy1_2_Weather.csv</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E22" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B23" t="s">
-        <v>292</v>
-      </c>
-      <c r="C23" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>CaseStudy1_2_Weather.csv</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E23" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E5">
-    <sortCondition ref="A2:A5"/>
-  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -4472,42 +4242,42 @@
         <v>6</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="B2" s="13">
         <v>0.6</v>
@@ -4567,51 +4337,51 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="D1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="E1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="F1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="G1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="H1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="I1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="J1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="K1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="L1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="M1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="N1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="O1" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -4762,7 +4532,7 @@
         <v>89</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>12</v>
@@ -4774,7 +4544,7 @@
         <v>14</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>15</v>
@@ -4830,10 +4600,10 @@
     </row>
     <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C2">
         <v>38.58</v>
@@ -4913,7 +4683,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
@@ -4933,42 +4703,42 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="I1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="J1" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="K1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="L1" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="B2" s="24">
         <v>37863</v>
@@ -4995,7 +4765,7 @@
     </row>
     <row r="3" spans="1:12" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="B3" s="24">
         <v>38089</v>
@@ -5021,7 +4791,7 @@
     </row>
     <row r="4" spans="1:12" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="B4" s="24">
         <v>38131</v>
@@ -5072,18 +4842,18 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5144,18 +4914,18 @@
         <v>92</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="B2">
         <v>1.0009999999999999</v>
@@ -5199,8 +4969,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:C212"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="G231" sqref="A228:G231"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5212,2335 +4982,647 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="6">
-        <v>41402</v>
-      </c>
-      <c r="C2">
-        <v>26.6</v>
-      </c>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="6">
-        <v>41404</v>
-      </c>
-      <c r="C3">
-        <v>22.4</v>
-      </c>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="6">
-        <v>41406</v>
-      </c>
-      <c r="C4">
-        <v>21.9</v>
-      </c>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="6">
-        <v>41413</v>
-      </c>
-      <c r="C5">
-        <v>41.1</v>
-      </c>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="6">
-        <v>41421</v>
-      </c>
-      <c r="C6">
-        <v>21.2</v>
-      </c>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="6">
-        <v>41432</v>
-      </c>
-      <c r="C7">
-        <v>15.5</v>
-      </c>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="6">
-        <v>41438</v>
-      </c>
-      <c r="C8">
-        <v>21.9</v>
-      </c>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B9" s="6">
-        <v>41445</v>
-      </c>
-      <c r="C9">
-        <v>24.7</v>
-      </c>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="6">
-        <v>41450</v>
-      </c>
-      <c r="C10">
-        <v>23.8</v>
-      </c>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="6">
-        <v>41452</v>
-      </c>
-      <c r="C11">
-        <v>15.5</v>
-      </c>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="6">
-        <v>41457</v>
-      </c>
-      <c r="C12">
-        <v>27.5</v>
-      </c>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="6">
-        <v>41465</v>
-      </c>
-      <c r="C13">
-        <v>25.6</v>
-      </c>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="6">
-        <v>41478</v>
-      </c>
-      <c r="C14">
-        <v>19.100000000000001</v>
-      </c>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>150</v>
-      </c>
-      <c r="B15" s="6">
-        <v>41485</v>
-      </c>
-      <c r="C15">
-        <v>18.2</v>
-      </c>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="6">
-        <v>41486</v>
-      </c>
-      <c r="C16">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="6">
-        <v>41488</v>
-      </c>
-      <c r="C17">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" s="6">
-        <v>41492</v>
-      </c>
-      <c r="C18">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B19" s="6">
-        <v>41494</v>
-      </c>
-      <c r="C19">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" s="6">
-        <v>41502</v>
-      </c>
-      <c r="C20">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21" s="6">
-        <v>41508</v>
-      </c>
-      <c r="C21">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>150</v>
-      </c>
-      <c r="B22" s="6">
-        <v>41514</v>
-      </c>
-      <c r="C22">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="6">
-        <v>41521</v>
-      </c>
-      <c r="C23">
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>151</v>
-      </c>
-      <c r="B24" s="6">
-        <v>42506</v>
-      </c>
-      <c r="C24">
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B25" s="6">
-        <v>42517</v>
-      </c>
-      <c r="C25">
-        <v>17.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="6">
-        <v>42530</v>
-      </c>
-      <c r="C26">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="6">
-        <v>42537</v>
-      </c>
-      <c r="C27">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="6">
-        <v>42542</v>
-      </c>
-      <c r="C28">
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="6">
-        <v>42548</v>
-      </c>
-      <c r="C29">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>151</v>
-      </c>
-      <c r="B30" s="6">
-        <v>42552</v>
-      </c>
-      <c r="C30">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="6">
-        <v>42556</v>
-      </c>
-      <c r="C31">
-        <v>24.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B32" s="6">
-        <v>42559</v>
-      </c>
-      <c r="C32">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B33" s="6">
-        <v>42563</v>
-      </c>
-      <c r="C33">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>151</v>
-      </c>
-      <c r="B34" s="6">
-        <v>42565</v>
-      </c>
-      <c r="C34">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="6">
-        <v>42569</v>
-      </c>
-      <c r="C35">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36" s="6">
-        <v>42573</v>
-      </c>
-      <c r="C36">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>151</v>
-      </c>
-      <c r="B37" s="6">
-        <v>42576</v>
-      </c>
-      <c r="C37">
-        <v>19.100000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" s="6">
-        <v>42578</v>
-      </c>
-      <c r="C38">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>151</v>
-      </c>
-      <c r="B39" s="6">
-        <v>42580</v>
-      </c>
-      <c r="C39">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="6">
-        <v>42583</v>
-      </c>
-      <c r="C40">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="6">
-        <v>42593</v>
-      </c>
-      <c r="C41">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" s="6">
-        <v>42599</v>
-      </c>
-      <c r="C42">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" s="6">
-        <v>42601</v>
-      </c>
-      <c r="C43">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>152</v>
-      </c>
-      <c r="B44" s="6">
-        <v>41402</v>
-      </c>
-      <c r="C44">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="6">
-        <v>41404</v>
-      </c>
-      <c r="C45">
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>152</v>
-      </c>
-      <c r="B46" s="6">
-        <v>41406</v>
-      </c>
-      <c r="C46">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>152</v>
-      </c>
-      <c r="B47" s="6">
-        <v>41413</v>
-      </c>
-      <c r="C47">
-        <v>40.299999999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48" s="6">
-        <v>41421</v>
-      </c>
-      <c r="C48">
-        <v>22.6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>152</v>
-      </c>
-      <c r="B49" s="6">
-        <v>41432</v>
-      </c>
-      <c r="C49">
-        <v>20.100000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>152</v>
-      </c>
-      <c r="B50" s="6">
-        <v>41438</v>
-      </c>
-      <c r="C50">
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>152</v>
-      </c>
-      <c r="B51" s="6">
-        <v>41445</v>
-      </c>
-      <c r="C51">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" s="6">
-        <v>41450</v>
-      </c>
-      <c r="C52">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="6">
-        <v>41452</v>
-      </c>
-      <c r="C53">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" s="6">
-        <v>41457</v>
-      </c>
-      <c r="C54">
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>152</v>
-      </c>
-      <c r="B55" s="6">
-        <v>41465</v>
-      </c>
-      <c r="C55">
-        <v>46.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>152</v>
-      </c>
-      <c r="B56" s="6">
-        <v>41478</v>
-      </c>
-      <c r="C56">
-        <v>29.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B57" s="6">
-        <v>41485</v>
-      </c>
-      <c r="C57">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>152</v>
-      </c>
-      <c r="B58" s="6">
-        <v>41486</v>
-      </c>
-      <c r="C58">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>152</v>
-      </c>
-      <c r="B59" s="6">
-        <v>41488</v>
-      </c>
-      <c r="C59">
-        <v>18.899999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>152</v>
-      </c>
-      <c r="B60" s="6">
-        <v>41492</v>
-      </c>
-      <c r="C60">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" s="6">
-        <v>41494</v>
-      </c>
-      <c r="C61">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>152</v>
-      </c>
-      <c r="B62" s="6">
-        <v>41502</v>
-      </c>
-      <c r="C62">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>152</v>
-      </c>
-      <c r="B63" s="6">
-        <v>41508</v>
-      </c>
-      <c r="C63">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>152</v>
-      </c>
-      <c r="B64" s="6">
-        <v>41514</v>
-      </c>
-      <c r="C64">
-        <v>20.8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>152</v>
-      </c>
-      <c r="B65" s="6">
-        <v>41521</v>
-      </c>
-      <c r="C65">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>153</v>
-      </c>
-      <c r="B66" s="6">
-        <v>42506</v>
-      </c>
-      <c r="C66">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>153</v>
-      </c>
-      <c r="B67" s="6">
-        <v>42517</v>
-      </c>
-      <c r="C67">
-        <v>18.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>153</v>
-      </c>
-      <c r="B68" s="6">
-        <v>42530</v>
-      </c>
-      <c r="C68">
-        <v>29.1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>153</v>
-      </c>
-      <c r="B69" s="6">
-        <v>42537</v>
-      </c>
-      <c r="C69">
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>153</v>
-      </c>
-      <c r="B70" s="6">
-        <v>42542</v>
-      </c>
-      <c r="C70">
-        <v>32.700000000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>153</v>
-      </c>
-      <c r="B71" s="6">
-        <v>42548</v>
-      </c>
-      <c r="C71">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>153</v>
-      </c>
-      <c r="B72" s="6">
-        <v>42552</v>
-      </c>
-      <c r="C72">
-        <v>40.299999999999997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>153</v>
-      </c>
-      <c r="B73" s="6">
-        <v>42556</v>
-      </c>
-      <c r="C73">
-        <v>35.299999999999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>153</v>
-      </c>
-      <c r="B74" s="6">
-        <v>42559</v>
-      </c>
-      <c r="C74">
-        <v>35.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>153</v>
-      </c>
-      <c r="B75" s="6">
-        <v>42563</v>
-      </c>
-      <c r="C75">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>153</v>
-      </c>
-      <c r="B76" s="6">
-        <v>42565</v>
-      </c>
-      <c r="C76">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>153</v>
-      </c>
-      <c r="B77" s="6">
-        <v>42569</v>
-      </c>
-      <c r="C77">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" s="6">
-        <v>42573</v>
-      </c>
-      <c r="C78">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>153</v>
-      </c>
-      <c r="B79" s="6">
-        <v>42576</v>
-      </c>
-      <c r="C79">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>153</v>
-      </c>
-      <c r="B80" s="6">
-        <v>42578</v>
-      </c>
-      <c r="C80">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>153</v>
-      </c>
-      <c r="B81" s="6">
-        <v>42580</v>
-      </c>
-      <c r="C81">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>153</v>
-      </c>
-      <c r="B82" s="6">
-        <v>42583</v>
-      </c>
-      <c r="C82">
-        <v>30.1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>153</v>
-      </c>
-      <c r="B83" s="6">
-        <v>42593</v>
-      </c>
-      <c r="C83">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>153</v>
-      </c>
-      <c r="B84" s="6">
-        <v>42599</v>
-      </c>
-      <c r="C84">
-        <v>46.4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>153</v>
-      </c>
-      <c r="B85" s="6">
-        <v>42601</v>
-      </c>
-      <c r="C85">
-        <v>24.2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>154</v>
-      </c>
-      <c r="B86" s="6">
-        <v>41400</v>
-      </c>
-      <c r="C86">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>154</v>
-      </c>
-      <c r="B87" s="6">
-        <v>41401</v>
-      </c>
-      <c r="C87">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>154</v>
-      </c>
-      <c r="B88" s="6">
-        <v>41402</v>
-      </c>
-      <c r="C88">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>154</v>
-      </c>
-      <c r="B89" s="6">
-        <v>41406</v>
-      </c>
-      <c r="C89">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>154</v>
-      </c>
-      <c r="B90" s="6">
-        <v>41409</v>
-      </c>
-      <c r="C90">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>154</v>
-      </c>
-      <c r="B91" s="6">
-        <v>41410</v>
-      </c>
-      <c r="C91">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>154</v>
-      </c>
-      <c r="B92" s="6">
-        <v>41418</v>
-      </c>
-      <c r="C92">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>154</v>
-      </c>
-      <c r="B93" s="6">
-        <v>41419</v>
-      </c>
-      <c r="C93">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>154</v>
-      </c>
-      <c r="B94" s="6">
-        <v>41420</v>
-      </c>
-      <c r="C94">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>154</v>
-      </c>
-      <c r="B95" s="6">
-        <v>41421</v>
-      </c>
-      <c r="C95">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>154</v>
-      </c>
-      <c r="B96" s="6">
-        <v>41422</v>
-      </c>
-      <c r="C96">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>154</v>
-      </c>
-      <c r="B97" s="6">
-        <v>41424</v>
-      </c>
-      <c r="C97">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>154</v>
-      </c>
-      <c r="B98" s="6">
-        <v>41425</v>
-      </c>
-      <c r="C98">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>154</v>
-      </c>
-      <c r="B99" s="6">
-        <v>41426</v>
-      </c>
-      <c r="C99">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>154</v>
-      </c>
-      <c r="B100" s="6">
-        <v>41427</v>
-      </c>
-      <c r="C100">
-        <v>36.4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>154</v>
-      </c>
-      <c r="B101" s="6">
-        <v>41428</v>
-      </c>
-      <c r="C101">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>154</v>
-      </c>
-      <c r="B102" s="6">
-        <v>41429</v>
-      </c>
-      <c r="C102">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>154</v>
-      </c>
-      <c r="B103" s="6">
-        <v>41430</v>
-      </c>
-      <c r="C103">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>154</v>
-      </c>
-      <c r="B104" s="6">
-        <v>41431</v>
-      </c>
-      <c r="C104">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>154</v>
-      </c>
-      <c r="B105" s="6">
-        <v>41450</v>
-      </c>
-      <c r="C105">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>154</v>
-      </c>
-      <c r="B106" s="6">
-        <v>41451</v>
-      </c>
-      <c r="C106">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>154</v>
-      </c>
-      <c r="B107" s="6">
-        <v>41457</v>
-      </c>
-      <c r="C107">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>154</v>
-      </c>
-      <c r="B108" s="6">
-        <v>41458</v>
-      </c>
-      <c r="C108">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>154</v>
-      </c>
-      <c r="B109" s="6">
-        <v>41463</v>
-      </c>
-      <c r="C109">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>154</v>
-      </c>
-      <c r="B110" s="6">
-        <v>41464</v>
-      </c>
-      <c r="C110">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>154</v>
-      </c>
-      <c r="B111" s="6">
-        <v>41465</v>
-      </c>
-      <c r="C111">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>154</v>
-      </c>
-      <c r="B112" s="6">
-        <v>41466</v>
-      </c>
-      <c r="C112">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>154</v>
-      </c>
-      <c r="B113" s="6">
-        <v>41470</v>
-      </c>
-      <c r="C113">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>154</v>
-      </c>
-      <c r="B114" s="6">
-        <v>41471</v>
-      </c>
-      <c r="C114">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>154</v>
-      </c>
-      <c r="B115" s="6">
-        <v>41484</v>
-      </c>
-      <c r="C115">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>154</v>
-      </c>
-      <c r="B116" s="6">
-        <v>41484</v>
-      </c>
-      <c r="C116">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>154</v>
-      </c>
-      <c r="B117" s="6">
-        <v>41487</v>
-      </c>
-      <c r="C117">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>154</v>
-      </c>
-      <c r="B118" s="6">
-        <v>41488</v>
-      </c>
-      <c r="C118">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>154</v>
-      </c>
-      <c r="B119" s="6">
-        <v>41492</v>
-      </c>
-      <c r="C119">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>154</v>
-      </c>
-      <c r="B120" s="6">
-        <v>41493</v>
-      </c>
-      <c r="C120">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>154</v>
-      </c>
-      <c r="B121" s="6">
-        <v>41494</v>
-      </c>
-      <c r="C121">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>154</v>
-      </c>
-      <c r="B122" s="6">
-        <v>41495</v>
-      </c>
-      <c r="C122">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>154</v>
-      </c>
-      <c r="B123" s="6">
-        <v>41498</v>
-      </c>
-      <c r="C123">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>154</v>
-      </c>
-      <c r="B124" s="6">
-        <v>41499</v>
-      </c>
-      <c r="C124">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>154</v>
-      </c>
-      <c r="B125" s="6">
-        <v>41509</v>
-      </c>
-      <c r="C125">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>154</v>
-      </c>
-      <c r="B126" s="6">
-        <v>41510</v>
-      </c>
-      <c r="C126">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>154</v>
-      </c>
-      <c r="B127" s="6">
-        <v>41520</v>
-      </c>
-      <c r="C127">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>154</v>
-      </c>
-      <c r="B128" s="6">
-        <v>41521</v>
-      </c>
-      <c r="C128">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>155</v>
-      </c>
-      <c r="B129" s="6">
-        <v>42507</v>
-      </c>
-      <c r="C129">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>155</v>
-      </c>
-      <c r="B130" s="6">
-        <v>42515</v>
-      </c>
-      <c r="C130">
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>155</v>
-      </c>
-      <c r="B131" s="6">
-        <v>42530</v>
-      </c>
-      <c r="C131">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>155</v>
-      </c>
-      <c r="B132" s="6">
-        <v>42537</v>
-      </c>
-      <c r="C132">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>155</v>
-      </c>
-      <c r="B133" s="6">
-        <v>42543</v>
-      </c>
-      <c r="C133">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>155</v>
-      </c>
-      <c r="B134" s="6">
-        <v>42549</v>
-      </c>
-      <c r="C134">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>155</v>
-      </c>
-      <c r="B135" s="6">
-        <v>42551</v>
-      </c>
-      <c r="C135">
-        <v>29.6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>155</v>
-      </c>
-      <c r="B136" s="6">
-        <v>42557</v>
-      </c>
-      <c r="C136">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>155</v>
-      </c>
-      <c r="B137" s="6">
-        <v>42558</v>
-      </c>
-      <c r="C137">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>155</v>
-      </c>
-      <c r="B138" s="6">
-        <v>42562</v>
-      </c>
-      <c r="C138">
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>155</v>
-      </c>
-      <c r="B139" s="6">
-        <v>42565</v>
-      </c>
-      <c r="C139">
-        <v>40.1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>155</v>
-      </c>
-      <c r="B140" s="6">
-        <v>42570</v>
-      </c>
-      <c r="C140">
-        <v>29.6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>155</v>
-      </c>
-      <c r="B141" s="6">
-        <v>42572</v>
-      </c>
-      <c r="C141">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
-        <v>155</v>
-      </c>
-      <c r="B142" s="6">
-        <v>42573</v>
-      </c>
-      <c r="C142">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>155</v>
-      </c>
-      <c r="B143" s="6">
-        <v>42577</v>
-      </c>
-      <c r="C143">
-        <v>29.6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>155</v>
-      </c>
-      <c r="B144" s="6">
-        <v>42579</v>
-      </c>
-      <c r="C144">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>155</v>
-      </c>
-      <c r="B145" s="6">
-        <v>42581</v>
-      </c>
-      <c r="C145">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>155</v>
-      </c>
-      <c r="B146" s="6">
-        <v>42584</v>
-      </c>
-      <c r="C146">
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>155</v>
-      </c>
-      <c r="B147" s="6">
-        <v>42594</v>
-      </c>
-      <c r="C147">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>155</v>
-      </c>
-      <c r="B148" s="6">
-        <v>42597</v>
-      </c>
-      <c r="C148">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>155</v>
-      </c>
-      <c r="B149" s="6">
-        <v>42600</v>
-      </c>
-      <c r="C149">
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>156</v>
-      </c>
-      <c r="B150" s="6">
-        <v>41401</v>
-      </c>
-      <c r="C150">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
-        <v>156</v>
-      </c>
-      <c r="B151" s="6">
-        <v>41402</v>
-      </c>
-      <c r="C151">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>156</v>
-      </c>
-      <c r="B152" s="6">
-        <v>41407</v>
-      </c>
-      <c r="C152">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>156</v>
-      </c>
-      <c r="B153" s="6">
-        <v>41409</v>
-      </c>
-      <c r="C153">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>156</v>
-      </c>
-      <c r="B154" s="6">
-        <v>41410</v>
-      </c>
-      <c r="C154">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>156</v>
-      </c>
-      <c r="B155" s="6">
-        <v>41418</v>
-      </c>
-      <c r="C155">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>156</v>
-      </c>
-      <c r="B156" s="6">
-        <v>41419</v>
-      </c>
-      <c r="C156">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>156</v>
-      </c>
-      <c r="B157" s="6">
-        <v>41420</v>
-      </c>
-      <c r="C157">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>156</v>
-      </c>
-      <c r="B158" s="6">
-        <v>41421</v>
-      </c>
-      <c r="C158">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>156</v>
-      </c>
-      <c r="B159" s="6">
-        <v>41422</v>
-      </c>
-      <c r="C159">
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>156</v>
-      </c>
-      <c r="B160" s="6">
-        <v>41424</v>
-      </c>
-      <c r="C160">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>156</v>
-      </c>
-      <c r="B161" s="6">
-        <v>41425</v>
-      </c>
-      <c r="C161">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>156</v>
-      </c>
-      <c r="B162" s="6">
-        <v>41426</v>
-      </c>
-      <c r="C162">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>156</v>
-      </c>
-      <c r="B163" s="6">
-        <v>41427</v>
-      </c>
-      <c r="C163">
-        <v>38.6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>156</v>
-      </c>
-      <c r="B164" s="6">
-        <v>41428</v>
-      </c>
-      <c r="C164">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>156</v>
-      </c>
-      <c r="B165" s="6">
-        <v>41429</v>
-      </c>
-      <c r="C165">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>156</v>
-      </c>
-      <c r="B166" s="6">
-        <v>41430</v>
-      </c>
-      <c r="C166">
-        <v>17.7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>156</v>
-      </c>
-      <c r="B167" s="6">
-        <v>41431</v>
-      </c>
-      <c r="C167">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>156</v>
-      </c>
-      <c r="B168" s="6">
-        <v>41450</v>
-      </c>
-      <c r="C168">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>156</v>
-      </c>
-      <c r="B169" s="6">
-        <v>41451</v>
-      </c>
-      <c r="C169">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>156</v>
-      </c>
-      <c r="B170" s="6">
-        <v>41457</v>
-      </c>
-      <c r="C170">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>156</v>
-      </c>
-      <c r="B171" s="6">
-        <v>41458</v>
-      </c>
-      <c r="C171">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>156</v>
-      </c>
-      <c r="B172" s="6">
-        <v>41463</v>
-      </c>
-      <c r="C172">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>156</v>
-      </c>
-      <c r="B173" s="6">
-        <v>41464</v>
-      </c>
-      <c r="C173">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>156</v>
-      </c>
-      <c r="B174" s="6">
-        <v>41465</v>
-      </c>
-      <c r="C174">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>156</v>
-      </c>
-      <c r="B175" s="6">
-        <v>41466</v>
-      </c>
-      <c r="C175">
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>156</v>
-      </c>
-      <c r="B176" s="6">
-        <v>41470</v>
-      </c>
-      <c r="C176">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>156</v>
-      </c>
-      <c r="B177" s="6">
-        <v>41471</v>
-      </c>
-      <c r="C177">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>156</v>
-      </c>
-      <c r="B178" s="6">
-        <v>41484</v>
-      </c>
-      <c r="C178">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>156</v>
-      </c>
-      <c r="B179" s="6">
-        <v>41485</v>
-      </c>
-      <c r="C179">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>156</v>
-      </c>
-      <c r="B180" s="6">
-        <v>41487</v>
-      </c>
-      <c r="C180">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>156</v>
-      </c>
-      <c r="B181" s="6">
-        <v>41488</v>
-      </c>
-      <c r="C181">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>156</v>
-      </c>
-      <c r="B182" s="6">
-        <v>41492</v>
-      </c>
-      <c r="C182">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>156</v>
-      </c>
-      <c r="B183" s="6">
-        <v>41493</v>
-      </c>
-      <c r="C183">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>156</v>
-      </c>
-      <c r="B184" s="6">
-        <v>41494</v>
-      </c>
-      <c r="C184">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>156</v>
-      </c>
-      <c r="B185" s="6">
-        <v>41495</v>
-      </c>
-      <c r="C185">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>156</v>
-      </c>
-      <c r="B186" s="6">
-        <v>41498</v>
-      </c>
-      <c r="C186">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>156</v>
-      </c>
-      <c r="B187" s="6">
-        <v>41499</v>
-      </c>
-      <c r="C187">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>156</v>
-      </c>
-      <c r="B188" s="6">
-        <v>41509</v>
-      </c>
-      <c r="C188">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>156</v>
-      </c>
-      <c r="B189" s="6">
-        <v>41510</v>
-      </c>
-      <c r="C189">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>156</v>
-      </c>
-      <c r="B190" s="6">
-        <v>41520</v>
-      </c>
-      <c r="C190">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>156</v>
-      </c>
-      <c r="B191" s="6">
-        <v>41521</v>
-      </c>
-      <c r="C191">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>157</v>
-      </c>
-      <c r="B192" s="6">
-        <v>42507</v>
-      </c>
-      <c r="C192">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>157</v>
-      </c>
-      <c r="B193" s="6">
-        <v>42515</v>
-      </c>
-      <c r="C193">
-        <v>28.1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>157</v>
-      </c>
-      <c r="B194" s="6">
-        <v>42530</v>
-      </c>
-      <c r="C194">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>157</v>
-      </c>
-      <c r="B195" s="6">
-        <v>42537</v>
-      </c>
-      <c r="C195">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>157</v>
-      </c>
-      <c r="B196" s="6">
-        <v>42543</v>
-      </c>
-      <c r="C196">
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>157</v>
-      </c>
-      <c r="B197" s="6">
-        <v>42549</v>
-      </c>
-      <c r="C197">
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>157</v>
-      </c>
-      <c r="B198" s="6">
-        <v>42551</v>
-      </c>
-      <c r="C198">
-        <v>29.6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>157</v>
-      </c>
-      <c r="B199" s="6">
-        <v>42557</v>
-      </c>
-      <c r="C199">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>157</v>
-      </c>
-      <c r="B200" s="6">
-        <v>42558</v>
-      </c>
-      <c r="C200">
-        <v>24.9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>157</v>
-      </c>
-      <c r="B201" s="6">
-        <v>42562</v>
-      </c>
-      <c r="C201">
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>157</v>
-      </c>
-      <c r="B202" s="6">
-        <v>42565</v>
-      </c>
-      <c r="C202">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>157</v>
-      </c>
-      <c r="B203" s="6">
-        <v>42570</v>
-      </c>
-      <c r="C203">
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>157</v>
-      </c>
-      <c r="B204" s="6">
-        <v>42572</v>
-      </c>
-      <c r="C204">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>157</v>
-      </c>
-      <c r="B205" s="6">
-        <v>42573</v>
-      </c>
-      <c r="C205">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>157</v>
-      </c>
-      <c r="B206" s="6">
-        <v>42577</v>
-      </c>
-      <c r="C206">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
-        <v>157</v>
-      </c>
-      <c r="B207" s="6">
-        <v>42579</v>
-      </c>
-      <c r="C207">
-        <v>34.6</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
-        <v>157</v>
-      </c>
-      <c r="B208" s="6">
-        <v>42581</v>
-      </c>
-      <c r="C208">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>157</v>
-      </c>
-      <c r="B209" s="6">
-        <v>42584</v>
-      </c>
-      <c r="C209">
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
-        <v>157</v>
-      </c>
-      <c r="B210" s="6">
-        <v>42594</v>
-      </c>
-      <c r="C210">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
-        <v>157</v>
-      </c>
-      <c r="B211" s="6">
-        <v>42597</v>
-      </c>
-      <c r="C211">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>157</v>
-      </c>
-      <c r="B212" s="6">
-        <v>42600</v>
-      </c>
-      <c r="C212">
-        <v>25.2</v>
-      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="6"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="6"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="6"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="6"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="6"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="6"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="6"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="6"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="6"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="6"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="6"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="6"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="6"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="6"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="6"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="6"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="6"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="6"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="6"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="6"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="6"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="6"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="6"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="6"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="6"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="6"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="6"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="6"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="6"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="6"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="6"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="6"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="6"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="6"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="6"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="6"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="6"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="6"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="6"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="6"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="6"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="6"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="6"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="6"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="6"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="6"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="6"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="6"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="6"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="6"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="6"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="6"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="6"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="6"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="6"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="6"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="6"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="6"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="6"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="6"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="6"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="6"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="6"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="6"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="6"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="6"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="6"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="6"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="6"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="6"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="6"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="6"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="6"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="6"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="6"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="6"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="6"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="6"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="6"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="6"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="6"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="6"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="6"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="6"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="6"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="6"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="6"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="6"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="6"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="6"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="6"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="6"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="6"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="6"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="6"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="6"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="6"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="6"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="6"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="6"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="6"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="6"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="6"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="6"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="6"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="6"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="6"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="6"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="6"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="6"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="6"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="6"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="6"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="6"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" s="6"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" s="6"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" s="6"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" s="6"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="6"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="6"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="6"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="6"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="6"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="6"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="6"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="6"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="6"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="6"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="6"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="6"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="6"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="6"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="6"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="6"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="6"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="6"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="6"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="6"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="6"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="6"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="6"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="6"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="6"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="6"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="6"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="6"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="6"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="6"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="6"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="6"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="6"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="6"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="6"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="6"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" s="6"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="6"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="6"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="6"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" s="6"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" s="6"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7865,7 +5947,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -7874,6 +5956,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010086EABF47CD1113448A96A17F6C8D13F9" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c68283fca48dae9b1add248de89d15c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986" xmlns:ns3="73fb875a-8af9-4255-b008-0995492d31cd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40d2b883f32ec076906f2da59f0ebb5f" ns2:_="" ns3:_="">
     <xsd:import namespace="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986"/>
@@ -8062,16 +6153,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA6A39AF-B78F-46A4-B576-74869F9A9581}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDA73D10-6EB9-46B2-AEC6-EC67F487A9BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8088,12 +6178,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA6A39AF-B78F-46A4-B576-74869F9A9581}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Example input/CO2_Respiration_CaseStudy2/CaseStudy2.xlsx
+++ b/Example input/CO2_Respiration_CaseStudy2/CaseStudy2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B077EC3-AE21-4EAC-A41B-D0D4DA629AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D991FF04-F0CE-4770-91EB-509B51A322D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25092" yWindow="2496" windowWidth="17280" windowHeight="9540" tabRatio="626" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20625" yWindow="2115" windowWidth="17250" windowHeight="11820" tabRatio="626" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Soil!$A$1:$A$6</definedName>
-    <definedName name="Description">Description!$A$1:$T$1</definedName>
+    <definedName name="Description">Description!$A$1:$U$1</definedName>
     <definedName name="Fertilization">Fertilization!$A$1:$F$1</definedName>
     <definedName name="GridRatio">GridRatio!$A$1:$J$1</definedName>
     <definedName name="GridX">#REF!</definedName>
@@ -39,7 +39,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="16" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-    <definedName name="Soil">Soil!$A$1:$AS$1</definedName>
+    <definedName name="Soil">Soil!$A$1:$AT$1</definedName>
     <definedName name="Time">Time!$A$1:$K$1</definedName>
     <definedName name="Weather">Weather!$A$1:$E$1</definedName>
   </definedNames>
@@ -57,8 +57,119 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{0C2168C7-E186-4C4F-B2BC-AEF8922FF8CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+rate for sprinkler or ponding when ponded as a flow of water into the field
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{B23D1978-7DA7-4211-A55B-521BEDD1853A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+the target ponded depth for flow infil or constant depth</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BC3E0621-CC7E-411E-8A5F-0169324FF37E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+type can be:
+flood_H flooding as a depth of water
+flood_R flooding as a rate of water input
+sprinkler
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{57D50D64-4586-4D36-803E-9D3FB94522DA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+hour of day 0-23</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="299">
   <si>
     <t>Date</t>
   </si>
@@ -889,6 +1000,72 @@
   </si>
   <si>
     <t>amount (mm/day)</t>
+  </si>
+  <si>
+    <t>Gas_N2O</t>
+  </si>
+  <si>
+    <t>GasN2ODefault</t>
+  </si>
+  <si>
+    <t>N2O(ppm)</t>
+  </si>
+  <si>
+    <t>date_start</t>
+  </si>
+  <si>
+    <t>date_end</t>
+  </si>
+  <si>
+    <t>Depth (mm)</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>start_hour</t>
+  </si>
+  <si>
+    <t>end_hour</t>
+  </si>
+  <si>
+    <t>there are 3 types of irrigation</t>
+  </si>
+  <si>
+    <t>flood_H</t>
+  </si>
+  <si>
+    <t>flooding by applying ponded water head</t>
+  </si>
+  <si>
+    <t>flood_R</t>
+  </si>
+  <si>
+    <t>flooding by applying a rate of water application over time</t>
+  </si>
+  <si>
+    <t>Sprinkler</t>
+  </si>
+  <si>
+    <t>overhead sprinkler</t>
+  </si>
+  <si>
+    <t>sprinkler</t>
+  </si>
+  <si>
+    <t>enter date_start and date_end, depth start_hour and end_hour and depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flood_R </t>
+  </si>
+  <si>
+    <t>enter date_start and date_end, depth start_hour and end_hour and amount</t>
+  </si>
+  <si>
+    <t>enter date start and amount</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
 </sst>
 </file>
@@ -900,7 +1077,7 @@
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -940,6 +1117,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1419,12 +1609,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1444,12 +1634,12 @@
     <col min="15" max="15" width="21.33203125" customWidth="1"/>
     <col min="16" max="16" width="16.33203125" customWidth="1"/>
     <col min="17" max="17" width="24.6640625" customWidth="1"/>
-    <col min="18" max="18" width="24.88671875" customWidth="1"/>
-    <col min="19" max="19" width="16.109375" customWidth="1"/>
-    <col min="20" max="20" width="15.88671875" customWidth="1"/>
+    <col min="18" max="19" width="24.88671875" customWidth="1"/>
+    <col min="20" max="20" width="16.109375" customWidth="1"/>
+    <col min="21" max="21" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1505,22 +1695,25 @@
         <v>220</v>
       </c>
       <c r="S1" t="s">
+        <v>277</v>
+      </c>
+      <c r="T1" t="s">
         <v>224</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>219</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>149</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>152</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>243</v>
       </c>
@@ -1577,23 +1770,26 @@
       <c r="R2" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" t="s">
+        <v>278</v>
+      </c>
+      <c r="T2" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="U2" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="V2" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="X2" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="X2" s="21">
+      <c r="Y2" s="21">
         <v>2004</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="J3" s="20"/>
     </row>
   </sheetData>
@@ -1660,10 +1856,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F41622-738B-41A7-B4B2-43DDC1442E35}">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1851,6 +2047,20 @@
       </c>
       <c r="D13">
         <v>15400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>278</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.65</v>
+      </c>
+      <c r="D14">
+        <v>12355.2</v>
       </c>
     </row>
   </sheetData>
@@ -1996,11 +2206,11 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:AS6"/>
+  <dimension ref="A1:AT6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:XFD15"/>
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2008,12 +2218,12 @@
     <col min="1" max="1" width="43.6640625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="31" width="13" customWidth="1"/>
-    <col min="32" max="32" width="13" style="22" customWidth="1"/>
-    <col min="33" max="45" width="13" customWidth="1"/>
+    <col min="4" max="32" width="13" customWidth="1"/>
+    <col min="33" max="33" width="13" style="22" customWidth="1"/>
+    <col min="34" max="46" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>165</v>
       </c>
@@ -2062,95 +2272,98 @@
       <c r="P1" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="R1" t="s">
         <v>126</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>127</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>128</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>87</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>88</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>93</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>95</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>96</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>97</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>98</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>99</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>100</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>101</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AG1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>66</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>67</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>68</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>58</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>69</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>70</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>59</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>60</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>61</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>62</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>63</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>64</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>249</v>
       </c>
@@ -2199,27 +2412,27 @@
       <c r="P2" s="27">
         <v>206000</v>
       </c>
-      <c r="Q2" s="27">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="27">
         <v>32</v>
       </c>
-      <c r="R2" s="27">
+      <c r="S2" s="27">
         <v>51</v>
       </c>
-      <c r="S2" s="27">
-        <f t="shared" ref="S2:S6" si="0">100-Q2-R2</f>
+      <c r="T2" s="27">
+        <f t="shared" ref="T2:T6" si="0">100-R2-S2</f>
         <v>17</v>
       </c>
-      <c r="T2" s="27">
+      <c r="U2" s="27">
         <v>1.04</v>
       </c>
-      <c r="U2" s="27">
+      <c r="V2" s="27">
         <v>0.37</v>
       </c>
-      <c r="V2" s="27">
+      <c r="W2" s="27">
         <v>0.22</v>
-      </c>
-      <c r="W2" s="27">
-        <v>-1</v>
       </c>
       <c r="X2" s="27">
         <v>-1</v>
@@ -2237,58 +2450,61 @@
         <v>-1</v>
       </c>
       <c r="AC2" s="27">
+        <v>-1</v>
+      </c>
+      <c r="AD2" s="27">
         <v>11</v>
       </c>
-      <c r="AD2" s="27">
+      <c r="AE2" s="27">
         <v>10</v>
       </c>
-      <c r="AE2" s="27">
+      <c r="AF2" s="27">
         <v>-1</v>
       </c>
-      <c r="AF2" s="28">
+      <c r="AG2" s="28">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="AG2" s="27">
+      <c r="AH2" s="27">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AH2" s="27">
+      <c r="AI2" s="27">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI2" s="27">
+      <c r="AJ2" s="27">
         <v>0.2</v>
       </c>
-      <c r="AJ2" s="27">
+      <c r="AK2" s="27">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AK2" s="27">
+      <c r="AL2" s="27">
         <v>0.6</v>
       </c>
-      <c r="AL2" s="27">
+      <c r="AM2" s="27">
         <v>0.2</v>
       </c>
-      <c r="AM2" s="27">
+      <c r="AN2" s="27">
         <v>10</v>
       </c>
-      <c r="AN2" s="27">
+      <c r="AO2" s="27">
         <v>50</v>
       </c>
-      <c r="AO2" s="27">
+      <c r="AP2" s="27">
         <v>10</v>
       </c>
-      <c r="AP2" s="27">
+      <c r="AQ2" s="27">
         <v>0.1</v>
       </c>
-      <c r="AQ2" s="27">
+      <c r="AR2" s="27">
         <v>8</v>
       </c>
-      <c r="AR2" s="27">
+      <c r="AS2" s="27">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AS2" s="27">
+      <c r="AT2" s="27">
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -2338,26 +2554,26 @@
         <v>206000</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>29</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>53</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1.37</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.37</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.22</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -2375,58 +2591,61 @@
         <v>-1</v>
       </c>
       <c r="AC3">
+        <v>-1</v>
+      </c>
+      <c r="AD3">
         <v>11</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>10</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-1</v>
       </c>
-      <c r="AF3" s="22">
+      <c r="AG3" s="22">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="AG3" s="27">
+      <c r="AH3" s="27">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.2</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.6</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.2</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>10</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>50</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>10</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>0.1</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>8</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -2476,26 +2695,26 @@
         <v>206000</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>28</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>52</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1.51</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.37</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>0.22</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -2513,58 +2732,61 @@
         <v>-1</v>
       </c>
       <c r="AC4">
+        <v>-1</v>
+      </c>
+      <c r="AD4">
         <v>11</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>10</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>-1</v>
       </c>
-      <c r="AF4" s="22">
+      <c r="AG4" s="22">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="AG4" s="27">
+      <c r="AH4" s="27">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>0.2</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>0.6</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>0.2</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>10</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>50</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>10</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>0.1</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>8</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>249</v>
       </c>
@@ -2614,26 +2836,26 @@
         <v>206000</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>29</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>51</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1.58</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.37</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>0.22</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -2651,58 +2873,61 @@
         <v>-1</v>
       </c>
       <c r="AC5">
+        <v>-1</v>
+      </c>
+      <c r="AD5">
         <v>11</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>10</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-1</v>
       </c>
-      <c r="AF5" s="22">
+      <c r="AG5" s="22">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="AG5" s="27">
+      <c r="AH5" s="27">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>0.2</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>0.6</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>0.2</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>10</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>50</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>10</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>0.1</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>8</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>249</v>
       </c>
@@ -2752,26 +2977,26 @@
         <v>206000</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>33</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>48</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1.58</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.37</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>0.22</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -2789,54 +3014,57 @@
         <v>-1</v>
       </c>
       <c r="AC6">
+        <v>-1</v>
+      </c>
+      <c r="AD6">
         <v>11</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>10</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>-1</v>
       </c>
-      <c r="AF6" s="22">
+      <c r="AG6" s="22">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="AG6" s="27">
+      <c r="AH6" s="27">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>0.2</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>0.6</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>0.2</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>10</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>50</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>10</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>0.1</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>8</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>0.38600000000000001</v>
       </c>
     </row>
@@ -3887,7 +4115,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -4965,12 +5193,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:C212"/>
+  <dimension ref="A1:M212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4980,60 +5208,166 @@
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>280</v>
       </c>
       <c r="C1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="1">
+        <v>38842</v>
+      </c>
+      <c r="C2" s="1">
+        <v>38847</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>287</v>
+      </c>
+      <c r="M2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="1">
+        <v>38863</v>
+      </c>
+      <c r="C3" s="1">
+        <v>38869</v>
+      </c>
+      <c r="D3">
+        <v>270</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>289</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>289</v>
+      </c>
+      <c r="M3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="1">
+        <v>38504</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>293</v>
+      </c>
+      <c r="L4" t="s">
+        <v>291</v>
+      </c>
+      <c r="M4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>287</v>
+      </c>
+      <c r="M6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>295</v>
+      </c>
+      <c r="M7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>293</v>
+      </c>
+      <c r="M8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="6"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
@@ -5627,6 +5961,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5956,15 +6291,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010086EABF47CD1113448A96A17F6C8D13F9" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c68283fca48dae9b1add248de89d15c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986" xmlns:ns3="73fb875a-8af9-4255-b008-0995492d31cd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40d2b883f32ec076906f2da59f0ebb5f" ns2:_="" ns3:_="">
     <xsd:import namespace="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986"/>
@@ -6153,15 +6479,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA6A39AF-B78F-46A4-B576-74869F9A9581}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDA73D10-6EB9-46B2-AEC6-EC67F487A9BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6178,4 +6505,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA6A39AF-B78F-46A4-B576-74869F9A9581}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Example input/CO2_Respiration_CaseStudy2/CaseStudy2.xlsx
+++ b/Example input/CO2_Respiration_CaseStudy2/CaseStudy2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D991FF04-F0CE-4770-91EB-509B51A322D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6970CE5-9AB5-4F90-9D5C-43ED8B58E81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20625" yWindow="2115" windowWidth="17250" windowHeight="11820" tabRatio="626" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="4350" windowWidth="17250" windowHeight="8910" tabRatio="626" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="16" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Weather" sheetId="7" r:id="rId16"/>
     <sheet name="MulchDecomp" sheetId="19" r:id="rId17"/>
     <sheet name="MulchGeo" sheetId="20" r:id="rId18"/>
+    <sheet name="WaterMovParam" sheetId="23" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Soil!$A$1:$A$6</definedName>
@@ -38,6 +39,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="10" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="16" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="18" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="Soil">Soil!$A$1:$AT$1</definedName>
     <definedName name="Time">Time!$A$1:$K$1</definedName>
@@ -169,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="311">
   <si>
     <t>Date</t>
   </si>
@@ -1066,6 +1068,42 @@
   </si>
   <si>
     <t>example</t>
+  </si>
+  <si>
+    <t>MaxIt</t>
+  </si>
+  <si>
+    <t>TolTh</t>
+  </si>
+  <si>
+    <t>TolH</t>
+  </si>
+  <si>
+    <t>hCritA</t>
+  </si>
+  <si>
+    <t>hCritS</t>
+  </si>
+  <si>
+    <t>DtMx</t>
+  </si>
+  <si>
+    <t>htab1</t>
+  </si>
+  <si>
+    <t>htabN</t>
+  </si>
+  <si>
+    <t>EPSI.Heat</t>
+  </si>
+  <si>
+    <t>EPSI.Solute</t>
+  </si>
+  <si>
+    <t>WaterMovDefault</t>
+  </si>
+  <si>
+    <t>WaterMovParam</t>
   </si>
 </sst>
 </file>
@@ -1609,12 +1647,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1:S2"/>
+      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1636,10 +1674,10 @@
     <col min="17" max="17" width="24.6640625" customWidth="1"/>
     <col min="18" max="19" width="24.88671875" customWidth="1"/>
     <col min="20" max="20" width="16.109375" customWidth="1"/>
-    <col min="21" max="21" width="15.88671875" customWidth="1"/>
+    <col min="21" max="22" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1704,16 +1742,19 @@
         <v>219</v>
       </c>
       <c r="V1" t="s">
+        <v>310</v>
+      </c>
+      <c r="W1" t="s">
         <v>149</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>152</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>243</v>
       </c>
@@ -1779,17 +1820,20 @@
       <c r="U2" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" t="s">
+        <v>309</v>
+      </c>
+      <c r="W2" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="Y2" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="Y2" s="21">
+      <c r="Z2" s="21">
         <v>2004</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="J3" s="20"/>
     </row>
   </sheetData>
@@ -4659,6 +4703,96 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6A83CD-43EC-4D7B-B4DF-5900F0BD9BD3}">
+  <sheetPr codeName="Sheet20"/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>0.01</v>
+      </c>
+      <c r="D2">
+        <v>0.05</v>
+      </c>
+      <c r="E2" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10000000000</v>
+      </c>
+      <c r="G2">
+        <v>0.02</v>
+      </c>
+      <c r="H2">
+        <v>1E-3</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
@@ -5197,7 +5331,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:M212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -6291,6 +6425,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010086EABF47CD1113448A96A17F6C8D13F9" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c68283fca48dae9b1add248de89d15c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986" xmlns:ns3="73fb875a-8af9-4255-b008-0995492d31cd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40d2b883f32ec076906f2da59f0ebb5f" ns2:_="" ns3:_="">
     <xsd:import namespace="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986"/>
@@ -6479,16 +6622,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA6A39AF-B78F-46A4-B576-74869F9A9581}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDA73D10-6EB9-46B2-AEC6-EC67F487A9BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6505,12 +6647,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA6A39AF-B78F-46A4-B576-74869F9A9581}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Example input/CO2_Respiration_CaseStudy2/CaseStudy2.xlsx
+++ b/Example input/CO2_Respiration_CaseStudy2/CaseStudy2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6970CE5-9AB5-4F90-9D5C-43ED8B58E81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9BC752-93BA-4DF5-85A4-3E1E04160C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="4350" windowWidth="17250" windowHeight="8910" tabRatio="626" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="3615" windowWidth="21600" windowHeight="11295" tabRatio="626" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="16" r:id="rId1"/>
@@ -1342,7 +1342,8 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F468A74B-C471-4D49-B3B3-C50F1BF3B7ED}"/>
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
@@ -1649,35 +1650,35 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.6640625" customWidth="1"/>
-    <col min="18" max="19" width="24.88671875" customWidth="1"/>
-    <col min="20" max="20" width="16.109375" customWidth="1"/>
-    <col min="21" max="22" width="15.88671875" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.7109375" customWidth="1"/>
+    <col min="18" max="19" width="24.85546875" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" customWidth="1"/>
+    <col min="21" max="22" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>243</v>
       </c>
@@ -1833,7 +1834,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J3" s="20"/>
     </row>
   </sheetData>
@@ -1852,13 +1853,13 @@
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1875,7 +1876,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1906,12 +1907,12 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -1925,7 +1926,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>205</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>11920</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>221</v>
       </c>
@@ -1953,7 +1954,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>250</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>11920</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>251</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>11920</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>252</v>
       </c>
@@ -1995,7 +1996,7 @@
         <v>11920</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>253</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>11920</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>254</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>11920</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>255</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>256</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>257</v>
       </c>
@@ -2065,7 +2066,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>258</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>259</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>278</v>
       </c>
@@ -2122,9 +2123,9 @@
       <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="5" width="13" customWidth="1"/>
     <col min="6" max="7" width="11" customWidth="1"/>
     <col min="8" max="9" width="14" customWidth="1"/>
@@ -2133,7 +2134,7 @@
     <col min="17" max="17" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>243</v>
       </c>
@@ -2257,9 +2258,9 @@
       <selection pane="topRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="32" width="13" customWidth="1"/>
@@ -2267,7 +2268,7 @@
     <col min="34" max="46" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>165</v>
       </c>
@@ -2407,7 +2408,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>249</v>
       </c>
@@ -2548,7 +2549,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>249</v>
       </c>
@@ -2689,7 +2690,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>249</v>
       </c>
@@ -2830,7 +2831,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>249</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>0.38600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>249</v>
       </c>
@@ -3129,15 +3130,15 @@
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
     <col min="4" max="10" width="13" customWidth="1"/>
     <col min="11" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3175,7 +3176,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>243</v>
       </c>
@@ -3229,23 +3230,22 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="8" width="16.5546875" customWidth="1"/>
-    <col min="12" max="13" width="8.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="8" width="16.5703125" customWidth="1"/>
+    <col min="12" max="13" width="8.140625" customWidth="1"/>
     <col min="15" max="16" width="18" customWidth="1"/>
-    <col min="17" max="22" width="9.109375"/>
-    <col min="25" max="25" width="11.109375" customWidth="1"/>
-    <col min="26" max="26" width="10.109375" customWidth="1"/>
-    <col min="27" max="27" width="10.33203125" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" customWidth="1"/>
+    <col min="26" max="26" width="10.140625" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>158</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>237</v>
       </c>
@@ -4163,16 +4163,16 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>247</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>261</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>247</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>247</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>247</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>247</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>247</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>247</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>247</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>247</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>247</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>247</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>247</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>247</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>247</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>247</v>
       </c>
@@ -4492,24 +4492,24 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>177</v>
       </c>
@@ -4599,12 +4599,12 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -4708,17 +4708,17 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>309</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>-100000</v>
       </c>
       <c r="F2" s="3">
-        <v>10000000000</v>
+        <v>1E-3</v>
       </c>
       <c r="G2">
         <v>0.02</v>
@@ -4802,12 +4802,12 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
@@ -4879,17 +4879,17 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="19" max="19" width="11.5546875" customWidth="1"/>
-    <col min="23" max="23" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="23" max="23" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>247</v>
       </c>
@@ -5050,17 +5050,17 @@
       <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="21" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="6" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>243</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>243</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>243</v>
       </c>
@@ -5194,12 +5194,12 @@
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>218</v>
       </c>
@@ -5241,16 +5241,16 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="8" width="13" customWidth="1"/>
     <col min="9" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>249</v>
       </c>
@@ -5335,14 +5335,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>167</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>298</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>298</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>298</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>287</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>295</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L8" t="s">
         <v>293</v>
       </c>
@@ -5480,616 +5480,616 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="6"/>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="6"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="6"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="6"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
     </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="6"/>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="6"/>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="6"/>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="6"/>
     </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="6"/>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="6"/>
     </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="6"/>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="6"/>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="6"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="6"/>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="6"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="6"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="6"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="6"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="6"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="6"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="6"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="6"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="6"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="6"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="6"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="6"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="6"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" s="6"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="6"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" s="6"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="6"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="6"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="6"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" s="6"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" s="6"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="6"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" s="6"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" s="6"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" s="6"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" s="6"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" s="6"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" s="6"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" s="6"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="6"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="6"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="6"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" s="6"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" s="6"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" s="6"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" s="6"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" s="6"/>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" s="6"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" s="6"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" s="6"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" s="6"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" s="6"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" s="6"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" s="6"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" s="6"/>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" s="6"/>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" s="6"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" s="6"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" s="6"/>
     </row>
   </sheetData>
@@ -6108,15 +6108,15 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -6139,259 +6139,259 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="I24" s="9"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="I27" s="9"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="I29" s="9"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="11"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="11"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="11"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
       <c r="I42" s="9"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
       <c r="I45" s="9"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
       <c r="I46" s="9"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="11"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="11"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="11"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="11"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="11"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="11"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="11"/>
       <c r="I56" s="9"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="11"/>
       <c r="I57" s="9"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="11"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="11"/>
       <c r="I59" s="9"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="11"/>
       <c r="I60" s="9"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="11"/>
       <c r="I61" s="9"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="11"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="11"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="11"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="11"/>
       <c r="I65" s="9"/>
     </row>
@@ -6409,9 +6409,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -6425,15 +6425,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010086EABF47CD1113448A96A17F6C8D13F9" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c68283fca48dae9b1add248de89d15c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986" xmlns:ns3="73fb875a-8af9-4255-b008-0995492d31cd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40d2b883f32ec076906f2da59f0ebb5f" ns2:_="" ns3:_="">
     <xsd:import namespace="a5f42ec3-4ee2-45fc-8d77-288bf2f0f986"/>
@@ -6622,15 +6613,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA6A39AF-B78F-46A4-B576-74869F9A9581}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDA73D10-6EB9-46B2-AEC6-EC67F487A9BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6647,4 +6639,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA6A39AF-B78F-46A4-B576-74869F9A9581}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>